--- a/xlsx/VK4501(P)_intext.xlsx
+++ b/xlsx/VK4501(P)_intext.xlsx
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>裝甲戰鬥車輛</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_VK4501(P)</t>
+    <t>装甲战斗车辆</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_VK4501(P)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>重戰車</t>
+    <t>重战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
+    <t>保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BC%8F%E9%87%8D%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>象式重驅逐戰車</t>
+    <t>象式重驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%86%B7</t>
   </si>
   <si>
-    <t>風冷</t>
+    <t>风冷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E6%B2%B9%E5%BC%95%E6%93%8E</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E5%90%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>懸吊系統</t>
+    <t>悬吊系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E7%94%B2</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/KwK36_88%E6%AF%AB%E7%B1%B3%E6%88%B0%E8%BB%8A%E7%82%AE</t>
   </si>
   <si>
-    <t>KwK36 88毫米戰車炮</t>
+    <t>KwK36 88毫米战车炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MG34</t>
@@ -107,31 +107,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>戰車</t>
+    <t>战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8EI%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>虎I戰車</t>
+    <t>虎I战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>斐迪南·保時捷</t>
+    <t>斐迪南·保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%B8%8C%E7%89%B9%E6%96%AF%E5%8A%A0%E7%99%BB</t>
   </si>
   <si>
-    <t>貝希特斯加登</t>
+    <t>贝希特斯加登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E6%88%88%E6%9E%97</t>
   </si>
   <si>
-    <t>赫爾曼·戈林</t>
+    <t>赫尔曼·戈林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%99%9F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>四號戰車</t>
+    <t>四号战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-34</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E8%99%8E%E5%BC%8F%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>獵虎式驅逐戰車</t>
+    <t>猎虎式驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC653%E9%87%8D%E8%A3%9D%E7%94%B2%E7%8D%B5%E5%85%B5%E7%87%9F</t>
   </si>
   <si>
-    <t>第653重裝甲獵兵營</t>
+    <t>第653重装甲猎兵营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%99%8F%E4%BC%AF</t>
@@ -191,43 +191,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%B4%8E%E9%A7%BF%E7%9A%84%E9%9B%9C%E6%83%B3%E7%AD%86%E8%A8%98</t>
   </si>
   <si>
-    <t>宮崎駿的雜想筆記</t>
+    <t>宫崎骏的杂想笔记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E6%96%AF%E5%85%8B%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>庫爾斯克會戰</t>
+    <t>库尔斯克会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%A5%B3%26%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>少女&amp;戰車</t>
+    <t>少女&amp;战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%BB%8A%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>戰車世界</t>
+    <t>战车世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>重型戰車</t>
+    <t>重型战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KwK43_88%E6%AF%AB%E7%B1%B3%E6%88%B0%E8%BB%8A%E7%82%AE</t>
   </si>
   <si>
-    <t>KwK43 88毫米戰車炮</t>
+    <t>KwK43 88毫米战车炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:WWIIGermanAFVs</t>
@@ -239,55 +239,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>輕戰車</t>
+    <t>轻战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%99%9F%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>一號坦克</t>
+    <t>一号坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E8%99%9F%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>二號坦克</t>
+    <t>二号坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LT-35%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>LT-35戰車</t>
+    <t>LT-35战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LT-38%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>LT-38戰車</t>
+    <t>LT-38战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>中戰車</t>
+    <t>中战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%99%9F%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>三號坦克</t>
+    <t>三号坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%B9%E5%BC%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>豹式戰車</t>
+    <t>豹式战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E8%99%9F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>六號戰車</t>
+    <t>六号战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8EII%E5%9D%A6%E5%85%8B</t>
@@ -299,97 +299,97 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>突擊砲</t>
+    <t>突击砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%99%9F%E7%AA%81%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>三號突擊砲</t>
+    <t>三号突击砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%99%9F%E7%AA%81%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>四號突擊砲</t>
+    <t>四号突击砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/10.5%E5%8E%98%E7%B1%B3%E7%AA%81%E6%93%8A%E6%A6%B4%E5%BD%88%E7%A0%B242</t>
   </si>
   <si>
-    <t>10.5厘米突擊榴彈砲42</t>
+    <t>10.5厘米突击榴弹砲42</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/33B%E7%AA%81%E6%93%8A%E6%AD%A5%E5%85%B5%E7%A0%B2</t>
   </si>
   <si>
-    <t>33B突擊步兵砲</t>
+    <t>33B突击步兵砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E7%86%8A%E5%BC%8F%E7%AA%81%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>灰熊式突擊砲</t>
+    <t>灰熊式突击砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E6%93%8A%E8%99%8E%E5%BC%8F</t>
   </si>
   <si>
-    <t>突擊虎式</t>
+    <t>突击虎式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>驅逐戰車</t>
+    <t>驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%99%9F%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>一號驅逐戰車</t>
+    <t>一号驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%BC%A0%E7%8B%BCI%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>黃鼠狼I驅逐戰車</t>
+    <t>黄鼠狼I驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%BC%A0%E7%8B%BCII%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>黃鼠狼II驅逐戰車</t>
+    <t>黄鼠狼II驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%BC%A0%E7%8B%BCIII%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>黃鼠狼III驅逐戰車</t>
+    <t>黄鼠狼III驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E7%8D%B5%E8%80%85%E5%BC%8F%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>追獵者式驅逐戰車</t>
+    <t>追猎者式驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%99%9F%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>四號驅逐戰車</t>
+    <t>四号驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%80%E7%89%9B%E5%BC%8F%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>犀牛式驅逐戰車</t>
+    <t>犀牛式驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E8%B1%B9%E5%BC%8F%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>獵豹式驅逐戰車</t>
+    <t>猎豹式驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%B5%B0%E7%A0%B2</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%99%9F%E8%87%AA%E8%B5%B0%E9%87%8D%E6%AD%A5%E5%85%B5%E7%A0%B2</t>
   </si>
   <si>
-    <t>一號自走重步兵砲</t>
+    <t>一号自走重步兵砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E8%99%9F%E8%87%AA%E8%B5%B0%E9%87%8D%E6%AD%A5%E5%85%B5%E7%A0%B2</t>
   </si>
   <si>
-    <t>二號自走重步兵砲</t>
+    <t>二号自走重步兵砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%9C%82%E5%BC%8F%E8%87%AA%E8%B5%B0%E7%82%AE</t>
   </si>
   <si>
-    <t>黃蜂式自走炮</t>
+    <t>黄蜂式自走炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E8%9C%82%E5%BC%8F%E8%87%AA%E8%B5%B0%E7%82%AE</t>
@@ -443,49 +443,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E8%87%BC%E7%82%AE</t>
   </si>
   <si>
-    <t>卡爾臼炮</t>
+    <t>卡尔臼炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/38%E5%BC%8F%E9%98%B2%E7%A9%BA%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>38式防空戰車</t>
+    <t>38式防空战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%99%9F%E9%98%B2%E7%A9%BA%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>一號防空戰車</t>
+    <t>一号防空战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%85%B7%E8%BB%8A%E5%BC%8F%E9%98%B2%E7%A9%BA%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>家具車式防空坦克</t>
+    <t>家具车式防空坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E5%BC%8F%E9%98%B2%E7%A9%BA%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>旋風式防空坦克</t>
+    <t>旋风式防空坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E5%BC%8F%E9%98%B2%E7%A9%BA%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>東風式防空坦克</t>
+    <t>东风式防空坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E7%90%83%E5%BC%8F%E9%98%B2%E7%A9%BA%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>閃電球式防空坦克</t>
+    <t>闪电球式防空坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B1%A5%E5%B8%B6%E8%BB%8A</t>
   </si>
   <si>
-    <t>半履帶車</t>
+    <t>半履带车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sd.Kfz._250%E5%8D%8A%E5%B1%A5%E5%B8%A6%E8%BD%A6</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/SdKfz_251%E5%8D%8A%E5%B1%A5%E5%B8%B6%E8%BB%8A</t>
   </si>
   <si>
-    <t>SdKfz 251半履帶車</t>
+    <t>SdKfz 251半履带车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sd.Kfz._253%E5%8D%8A%E5%B1%A5%E5%B8%A6%E8%BD%A6</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>裝甲車</t>
+    <t>装甲车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Leichter_Panzersp%C3%A4hwagen</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E8%99%9F%E5%9D%A6%E5%85%8B%E9%BC%A0%E5%BC%8F</t>
   </si>
   <si>
-    <t>八號坦克鼠式</t>
+    <t>八号坦克鼠式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E%E7%B3%BB%E5%9D%A6%E5%85%8B</t>
@@ -563,31 +563,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9D%97%E8%9F%B210%E8%87%AA%E8%B5%B0%E7%A0%B2</t>
   </si>
   <si>
-    <t>蝗蟲10自走砲</t>
+    <t>蝗虫10自走砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8%E6%90%AC%E9%81%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>武器搬運車</t>
+    <t>武器搬运车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E7%88%BE%C2%B7%E5%9F%83%E7%B1%B3%E7%88%BE%E8%87%AA%E8%B5%B0%E7%82%AE</t>
   </si>
   <si>
-    <t>斯圖爾·埃米爾自走炮</t>
+    <t>斯图尔·埃米尔自走炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%A5%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>大麥克斯</t>
+    <t>大麦克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/III/IV%E8%99%9F%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>III/IV號坦克</t>
+    <t>III/IV号坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VK4502(P)</t>
@@ -599,13 +599,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E8%99%9F%E7%8D%85%E5%BC%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>七號獅式戰車</t>
+    <t>七号狮式战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D/%E5%8D%81%E8%99%9F%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>九/十號坦克</t>
+    <t>九/十号坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%9C%B0%E5%B7%A1%E8%88%AA%E8%80%85P._1000%E8%80%81%E9%BC%A0</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/VK_1602%E8%B1%B9%E5%BC%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>VK 1602豹式戰車</t>
+    <t>VK 1602豹式战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SdKfz_2</t>
@@ -635,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/SdKfz_4%E8%A3%9D%E7%94%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>SdKfz 4裝甲車</t>
+    <t>SdKfz 4装甲车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RSO%E7%89%BD%E5%BC%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>RSO牽引車</t>
+    <t>RSO牵引车</t>
   </si>
 </sst>
 </file>
@@ -3973,7 +3973,7 @@
         <v>196</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
